--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -103,10 +103,10 @@
     <t>special</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>better</t>
@@ -1096,25 +1096,25 @@
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L10">
         <v>168</v>
       </c>
       <c r="M10">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1226,25 +1226,25 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6024464831804281</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L15">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,25 +1252,25 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.5909090909090909</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="10:17">
